--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14810" xWindow="240" yWindow="110"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
-    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
-    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
-    <sheet name="frame" r:id="rId4" sheetId="5"/>
-    <sheet name="Incense and Candles" r:id="rId5" sheetId="6"/>
-    <sheet name="Offering" r:id="rId6" sheetId="7"/>
-    <sheet name="SnackBox" r:id="rId7" sheetId="3"/>
-    <sheet name="Package" r:id="rId8" sheetId="8"/>
+    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
+    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
+    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
+    <sheet name="frame" sheetId="5" r:id="rId4"/>
+    <sheet name="Incense and Candles" sheetId="6" r:id="rId5"/>
+    <sheet name="Offering" sheetId="7" r:id="rId6"/>
+    <sheet name="SnackBox" sheetId="3" r:id="rId7"/>
+    <sheet name="Package" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>size</t>
   </si>
@@ -96,13 +96,63 @@
   </si>
   <si>
     <t>ดอกไม้ปลอม</t>
+  </si>
+  <si>
+    <t>พวงหรีด</t>
+  </si>
+  <si>
+    <t>แบบที่ 1</t>
+  </si>
+  <si>
+    <t>แบบที่ 2</t>
+  </si>
+  <si>
+    <t>แบบที่ 3</t>
+  </si>
+  <si>
+    <t>แบบที่ 4</t>
+  </si>
+  <si>
+    <t>แบบที่ 5</t>
+  </si>
+  <si>
+    <t>วัสดุ</t>
+  </si>
+  <si>
+    <t>สี</t>
+  </si>
+  <si>
+    <t>แดง</t>
+  </si>
+  <si>
+    <t>ขาว</t>
+  </si>
+  <si>
+    <t>ฟ้า</t>
+  </si>
+  <si>
+    <t>รายละเอียด</t>
+  </si>
+  <si>
+    <t>อเอ</t>
+  </si>
+  <si>
+    <t>สืสา</t>
+  </si>
+  <si>
+    <t>สทื</t>
+  </si>
+  <si>
+    <t>สืท</t>
+  </si>
+  <si>
+    <t>อิเ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,19 +180,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -159,10 +209,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -197,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,7 +282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,7 +370,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -329,13 +379,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -345,7 +395,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -354,7 +404,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -363,7 +413,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -373,12 +423,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -409,7 +459,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -428,7 +478,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -440,8 +490,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -449,21 +499,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.1796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.453125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.1796875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.1796875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.26953125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7265625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.453125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
@@ -520,44 +570,108 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.81640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="13.90625" collapsed="false"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -565,7 +679,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -601,13 +715,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -615,7 +729,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -660,13 +774,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -674,7 +788,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -683,13 +797,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -697,7 +811,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -742,13 +856,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
@@ -756,7 +870,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -792,18 +906,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -4,42 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Coffin" sheetId="1" r:id="rId1"/>
     <sheet name="Wreath" sheetId="2" r:id="rId2"/>
     <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
     <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Incense and Candles" sheetId="6" r:id="rId5"/>
-    <sheet name="Offering" sheetId="7" r:id="rId6"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId7"/>
-    <sheet name="Package" sheetId="8" r:id="rId8"/>
+    <sheet name="Candles" sheetId="9" r:id="rId5"/>
+    <sheet name="Incense" sheetId="6" r:id="rId6"/>
+    <sheet name="Offering" sheetId="7" r:id="rId7"/>
+    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
+    <sheet name="Package" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>coffin 2 (เทพพนม)</t>
-  </si>
-  <si>
-    <t>coffin 3 (ผ้าตาด)</t>
-  </si>
-  <si>
-    <t>coffin 4 (สีทอง)</t>
-  </si>
-  <si>
-    <t>coffin 5 (สีมุก)</t>
-  </si>
-  <si>
-    <t>coffin 1 (ไม้ธรรมดา)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -56,64 +39,19 @@
     <t xml:space="preserve">แบบที่ 4 </t>
   </si>
   <si>
-    <t>ยาดม</t>
-  </si>
-  <si>
-    <t>ยาหม่อง</t>
-  </si>
-  <si>
-    <t>ช้อน</t>
-  </si>
-  <si>
     <t xml:space="preserve">แบบที่ 1 </t>
   </si>
   <si>
     <t xml:space="preserve">แบบที่ 2 </t>
   </si>
   <si>
-    <t xml:space="preserve">ชุดที่ 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชุดที่ 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชุดที่ 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชุดที่ 4 </t>
-  </si>
-  <si>
-    <t>ชุด A</t>
-  </si>
-  <si>
-    <t>ชุด B</t>
-  </si>
-  <si>
-    <t>ชุด C</t>
-  </si>
-  <si>
-    <t>ผ้า</t>
-  </si>
-  <si>
-    <t>ดอกไม้ปลอม</t>
-  </si>
-  <si>
     <t>พวงหรีด</t>
   </si>
   <si>
-    <t>แบบที่ 1</t>
-  </si>
-  <si>
-    <t>แบบที่ 2</t>
-  </si>
-  <si>
-    <t>แบบที่ 3</t>
-  </si>
-  <si>
-    <t>แบบที่ 4</t>
-  </si>
-  <si>
-    <t>แบบที่ 5</t>
+    <t>รายละเอียด</t>
+  </si>
+  <si>
+    <t>pathรูปภาพ</t>
   </si>
   <si>
     <t>วัสดุ</t>
@@ -122,31 +60,13 @@
     <t>สี</t>
   </si>
   <si>
-    <t>แดง</t>
-  </si>
-  <si>
-    <t>ขาว</t>
-  </si>
-  <si>
-    <t>ฟ้า</t>
-  </si>
-  <si>
-    <t>รายละเอียด</t>
-  </si>
-  <si>
-    <t>อเอ</t>
-  </si>
-  <si>
-    <t>สืสา</t>
-  </si>
-  <si>
-    <t>สทื</t>
-  </si>
-  <si>
-    <t>สืท</t>
-  </si>
-  <si>
-    <t>อิเ</t>
+    <t>แบบ F</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1500000</t>
   </si>
 </sst>
 </file>
@@ -182,11 +102,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +411,7 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,58 +432,64 @@
     <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
   </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3000</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1">
-        <v>3500</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -574,147 +497,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K4" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -734,43 +529,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -782,139 +577,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="O5" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="K3" sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FF2EA18A-2987-47BC-8316-22C99FF6561E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="8"/>
+    <workbookView windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -68,15 +69,46 @@
   <si>
     <t>1500000</t>
   </si>
+  <si>
+    <t>ธูป</t>
+  </si>
+  <si>
+    <t>ขนาด</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin4.png</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\ProCoffin1.form</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,16 +132,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -122,14 +154,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -162,9 +194,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -287,7 +319,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -296,13 +328,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +344,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +353,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +362,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,12 +372,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -376,7 +408,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -395,7 +427,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -407,55 +439,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.26953125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.1796875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="51.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7265625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -475,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -493,41 +526,41 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,79 +602,151 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
+        <v>111.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>111.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="8"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14810" xWindow="240" yWindow="110"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -60,19 +60,32 @@
     <t>สี</t>
   </si>
   <si>
-    <t>แบบ F</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>1500000</t>
+    <t>ทรงวงรี</t>
+  </si>
+  <si>
+    <t>พวงหรีดที่เราทำด้วยใจ ส่งอำลาคนที่รักเป็นครั้งสุดท้าย</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO\Pictures\Screenshots\Screenshot (925).png</t>
+  </si>
+  <si>
+    <t>ผ้า,ดอกไม้ปลอม</t>
+  </si>
+  <si>
+    <t>1500,1200</t>
+  </si>
+  <si>
+    <t>ฟ้า,ชมพู,เหลือง,ม่วง,หลากสี</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,16 +113,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -126,10 +139,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -164,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,7 +300,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -296,13 +309,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,12 +353,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -376,7 +389,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -395,7 +408,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -407,7 +420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -416,43 +429,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.26953125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.1796875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.26953125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.1796875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7265625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.7265625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -476,29 +489,37 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -507,16 +528,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.81640625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -524,7 +545,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -569,39 +590,39 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -610,15 +631,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.26953125" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -627,21 +648,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.453125" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AA97DD-518D-4109-A79F-FDC5F5BE1A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14810" xWindow="240" yWindow="110"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
-    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
-    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
-    <sheet name="frame" r:id="rId4" sheetId="5"/>
-    <sheet name="Candles" r:id="rId5" sheetId="9"/>
-    <sheet name="Incense" r:id="rId6" sheetId="6"/>
-    <sheet name="Offering" r:id="rId7" sheetId="7"/>
-    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
-    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
+    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
+    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
+    <sheet name="frame" sheetId="5" r:id="rId4"/>
+    <sheet name="Candles" sheetId="9" r:id="rId5"/>
+    <sheet name="Incense" sheetId="6" r:id="rId6"/>
+    <sheet name="Offering" sheetId="7" r:id="rId7"/>
+    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
+    <sheet name="Package" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -63,29 +64,28 @@
     <t/>
   </si>
   <si>
-    <t>ทรงวงรี</t>
-  </si>
-  <si>
-    <t>พวงหรีดที่เราทำด้วยใจ ส่งอำลาคนที่รักเป็นครั้งสุดท้าย</t>
-  </si>
-  <si>
-    <t>C:\Users\LENOVO\Pictures\Screenshots\Screenshot (925).png</t>
-  </si>
-  <si>
-    <t>ผ้า,ดอกไม้ปลอม</t>
-  </si>
-  <si>
-    <t>1500,1200</t>
-  </si>
-  <si>
-    <t>ฟ้า,ชมพู,เหลือง,ม่วง,หลากสี</t>
+    <t>รี</t>
+  </si>
+  <si>
+    <t>เย้</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Pictures\1.png</t>
+  </si>
+  <si>
+    <t>ผ้า</t>
+  </si>
+  <si>
+    <t>ฟ้า</t>
+  </si>
+  <si>
+    <t>1200/1500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,16 +113,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -135,14 +135,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -175,9 +175,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,7 +247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -300,7 +300,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -309,13 +309,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -353,12 +353,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -389,7 +389,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -408,7 +408,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -420,55 +420,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.1796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.453125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.1796875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.7265625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.81640625" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -488,12 +488,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -507,48 +507,48 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,79 +590,79 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>ราคา</t>
   </si>
@@ -90,6 +90,30 @@
   </si>
   <si>
     <t>สีขาวนวล</t>
+  </si>
+  <si>
+    <t>กรอบหลุยส์ทอง</t>
+  </si>
+  <si>
+    <t>กรอบหลุยส์ทอง ทำจากไม้ เคลือบด้วยสีทอง มีความแข็งแรงทนทาน</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Pictures\Frame1.png</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>กรอบอะลูมิเนียม</t>
+  </si>
+  <si>
+    <t>ผลิตจากอะลูมิเนียม มีความคงทน ดีไซน์เรียบๆ กันน้ำได้</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Pictures\Frame4.png</t>
+  </si>
+  <si>
+    <t>อะลูมิเนียม</t>
   </si>
 </sst>
 </file>
@@ -601,7 +625,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -648,6 +672,40 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{721E74DE-4207-48CC-B43A-12B87972D85E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="8"/>
+    <workbookView activeTab="7" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>username</t>
   </si>
@@ -68,16 +69,92 @@
   <si>
     <t>1500000</t>
   </si>
+  <si>
+    <t>ดอกไม้สด</t>
+  </si>
+  <si>
+    <t>ทดสอบ</t>
+  </si>
+  <si>
+    <t>ดอกไม้แห้ง,ดอกไม้สด</t>
+  </si>
+  <si>
+    <t>300,500</t>
+  </si>
+  <si>
+    <t>สีฟ้า,ม่วง</t>
+  </si>
+  <si>
+    <t>ชุดอาหารว่าง</t>
+  </si>
+  <si>
+    <t>Boxset1</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย พายทูน่า 1 ชิ้น และ วนิลาบัตเตอร์เค้ก 1 ชิ้น</t>
+  </si>
+  <si>
+    <t>C:\Users\User\Downloads\SnackBox1.png</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Boxset2</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย อัลมอนด์ครัวซองต์ 1 ชิ้น และ ชาดำ 1 ขวด</t>
+  </si>
+  <si>
+    <t>C:\Users\User\Downloads\SnackBox2.png</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Boxset3</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย ขนมปังใส้เผือก+แปะก๊วย 1 ชิ้น ขนมปังแฮมชีส 1 ชิ้น และ น้ำส้ม 1 กล่อง</t>
+  </si>
+  <si>
+    <t>C:\Users\User\Downloads\SnackBox3.png</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Boxset4</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย พายไก่ 1 ชิ้น ทูโทนบัตเตอร์เค้ก 1 ชิ้น และ น้ำส้ม 1 กล่อง</t>
+  </si>
+  <si>
+    <t>C:\Users\User\Downloads\SnackBox4.png</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Boxset5</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย พายแอปเปิ้ล 1 ชิ้น วนิลาบัตเตอร์เค้ก 1 ชิ้น และ น้ำส้ม 1 กล่อง</t>
+  </si>
+  <si>
+    <t>C:\Users\User\Downloads\SnackBox5.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -100,16 +177,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="ปกติ" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -122,14 +199,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -162,9 +239,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,7 +311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -287,7 +364,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -296,13 +373,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +389,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +398,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +407,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,12 +417,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -376,7 +453,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -395,7 +472,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -407,55 +484,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.26953125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.1796875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.75" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.75" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F4" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7265625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -475,7 +552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -492,42 +569,59 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,79 +663,166 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.75" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.25" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.75" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="A1:K3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AA97DD-518D-4109-A79F-FDC5F5BE1A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16337F-8FDF-40C7-9A18-0BDD6B5AE2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coffin" sheetId="1" r:id="rId1"/>
@@ -17,35 +17,18 @@
     <sheet name="Offering" sheetId="7" r:id="rId7"/>
     <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
     <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="SandalWood" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>จำนวนสั่งซื้อ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>ราคา</t>
   </si>
   <si>
-    <t xml:space="preserve">แบบที่ 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">แบบที่ 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">แบบที่ 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">แบบที่ 2 </t>
-  </si>
-  <si>
     <t>พวงหรีด</t>
   </si>
   <si>
@@ -61,25 +44,76 @@
     <t>สี</t>
   </si>
   <si>
+    <t>แบบ F</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>รี</t>
-  </si>
-  <si>
-    <t>เย้</t>
-  </si>
-  <si>
-    <t>C:\Users\Khao\Pictures\1.png</t>
-  </si>
-  <si>
-    <t>ผ้า</t>
-  </si>
-  <si>
-    <t>ฟ้า</t>
-  </si>
-  <si>
-    <t>1200/1500</t>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>กรอบรูป</t>
+  </si>
+  <si>
+    <t>กรอบไม้</t>
+  </si>
+  <si>
+    <t>กรอบไม้ทำจากไม้เส้นพลาสติก</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Desktop\SoftwareProjectKhim\src\frame2.png</t>
+  </si>
+  <si>
+    <t>ไม้</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>ดอกไม้จันทน์</t>
+  </si>
+  <si>
+    <t>แบบดอก</t>
+  </si>
+  <si>
+    <t>ดอกไม้จันทน์สำหรับแขกร่วมงานฌาปนกิจ 1 ห่อ บรรจุสินค้าจำนวน 100 ชิ้น</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Desktop\SoftwareProjectKhim\src\wreath5.png</t>
+  </si>
+  <si>
+    <t>กระดาษ</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>สีขาวนวล</t>
+  </si>
+  <si>
+    <t>กรอบหลุยส์ทอง</t>
+  </si>
+  <si>
+    <t>กรอบหลุยส์ทอง ทำจากไม้ เคลือบด้วยสีทอง มีความแข็งแรงทนทาน</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Pictures\Frame1.png</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>กรอบอะลูมิเนียม</t>
+  </si>
+  <si>
+    <t>กรอบรูปอะลูมิเนียมสีเงิน ให้ความรู้สึกเรียบหรู ทำจากวัสดุอะลูมิเนียม</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Pictures\Frame4.png</t>
+  </si>
+  <si>
+    <t>อะลูมิเนียม</t>
   </si>
 </sst>
 </file>
@@ -450,12 +484,73 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653C11F8-1256-4417-B742-39B9D2204DC3}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="66.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="53.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,53 +559,45 @@
     <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.77734375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -537,56 +624,87 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="56.77734375" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +744,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="A1:O5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AA97DD-518D-4109-A79F-FDC5F5BE1A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{41AA97DD-518D-4109-A79F-FDC5F5BE1A07}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>username</t>
   </si>
@@ -80,12 +80,54 @@
   </si>
   <si>
     <t>1200/1500</t>
+  </si>
+  <si>
+    <t>เครื่องไทยธรรม</t>
+  </si>
+  <si>
+    <t>ชุดที่ 1</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย
+1. ปลากระป๋อง  
+2. น้ำเปล่า
+3. ยาสามัญประจำบ้าน
+4. ผ้าไตรจีวร</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO\Downloads\offering1</t>
+  </si>
+  <si>
+    <t>ชุดที่ 2</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย
+1. น้ำเปล่า
+2. ยาสามัญประจำบ้าน
+3. สบู่
+4. ผ้าไตรจีวร</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO\offering2</t>
+  </si>
+  <si>
+    <t>ชุดที่ 3</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย
+1. บะหมี่กึ่งสำเร็จรูป  4. สบู่
+2. นมถั่วเหลือง    5. ผ้าไตรจีวร
+3. ยาสามัญประจำบ้าน  6. ไฟฉาย</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO\offering3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,16 +155,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -139,10 +181,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -300,7 +342,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -309,13 +351,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +367,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +376,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +385,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -353,12 +395,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -389,7 +431,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -408,7 +450,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -420,7 +462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -429,30 +471,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -460,12 +502,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -514,12 +556,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -528,16 +570,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -545,7 +587,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -590,40 +632,40 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="A1:O5"/>
@@ -631,15 +673,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>150.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -648,21 +747,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>username</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>C:\Users\LENOVO\offering3</t>
+  </si>
+  <si>
+    <t>ชุดที่ 4</t>
+  </si>
+  <si>
+    <t>ffffffffffffffffff</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO\Pictures\eng_page-0002.jpg</t>
   </si>
 </sst>
 </file>
@@ -665,7 +674,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="A1:O5"/>
@@ -732,6 +741,20 @@
         <v>150.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>180.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AA97DD-518D-4109-A79F-FDC5F5BE1A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D59DE37D-E8C7-45F9-98D1-AD654B8C3746}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="5" windowHeight="8880" windowWidth="17280" xWindow="1884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1884"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -80,12 +80,66 @@
   </si>
   <si>
     <t>1200/1500</t>
+  </si>
+  <si>
+    <t>โลงศพ</t>
+  </si>
+  <si>
+    <t>ขนาด</t>
+  </si>
+  <si>
+    <t>ธรรมดาแบบไม่มีลวดลาย</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>- ลักษณะหีบศพเป็นทรงสี่เหลี่ยมผืนผ้า 
+- ภายนอกเป็นไม้ทาด้วยสีขาว 
+- ข้างในบุด้วยพลาสติก</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin1.png</t>
+  </si>
+  <si>
+    <t>ผ้าตาด</t>
+  </si>
+  <si>
+    <t>- ลักษณะโลงศพที่ตกแต่งด้วยผ้าตาดจับจีบ 
+- ทรงสี่เหลี่ยมผืนผ้า 
+- ภายนอกเป็นผ้าตาดจับจีบย่นรอบใบ 
+- ข้างในบุด้วยผ้า</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin3.png</t>
+  </si>
+  <si>
+    <t>ธูป</t>
+  </si>
+  <si>
+    <t>เกลียว</t>
+  </si>
+  <si>
+    <t>ขนาด 23 นิ้ว หรือประมาณ 59 เซนติเมตร ใน 1 ห่อ มีจำนวน 3 ก้าน</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\spiral incense stick1.png</t>
+  </si>
+  <si>
+    <t>ไหว้พระปกติ</t>
+  </si>
+  <si>
+    <t>ขนาด 10 นิ้ว หรือประมาณ 25 เซนติเมตร จำนวน 90 ดอก</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\proincensecandles1.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,16 +167,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -139,10 +193,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -300,7 +354,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -309,13 +363,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +379,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +388,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +397,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -353,12 +407,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -389,7 +443,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -408,7 +462,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -420,8 +474,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q3"/>
@@ -429,43 +483,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -514,12 +620,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -528,16 +634,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -545,7 +651,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -590,39 +696,87 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -631,15 +785,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -648,21 +802,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{D59DE37D-E8C7-45F9-98D1-AD654B8C3746}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36FA69-9695-4935-9425-DC5A3ACA0BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="5" windowHeight="8880" windowWidth="17280" xWindow="1884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1884"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
-    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
-    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
-    <sheet name="frame" r:id="rId4" sheetId="5"/>
-    <sheet name="Candles" r:id="rId5" sheetId="9"/>
-    <sheet name="Incense" r:id="rId6" sheetId="6"/>
-    <sheet name="Offering" r:id="rId7" sheetId="7"/>
-    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
-    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
+    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
+    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
+    <sheet name="frame" sheetId="5" r:id="rId4"/>
+    <sheet name="Candles" sheetId="9" r:id="rId5"/>
+    <sheet name="Incense" sheetId="6" r:id="rId6"/>
+    <sheet name="Offering" sheetId="7" r:id="rId7"/>
+    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
+    <sheet name="Package" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -80,70 +80,22 @@
   </si>
   <si>
     <t>1200/1500</t>
-  </si>
-  <si>
-    <t>โลงศพ</t>
-  </si>
-  <si>
-    <t>ขนาด</t>
-  </si>
-  <si>
-    <t>ธรรมดาแบบไม่มีลวดลาย</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>- ลักษณะหีบศพเป็นทรงสี่เหลี่ยมผืนผ้า 
-- ภายนอกเป็นไม้ทาด้วยสีขาว 
-- ข้างในบุด้วยพลาสติก</t>
-  </si>
-  <si>
-    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin1.png</t>
-  </si>
-  <si>
-    <t>ผ้าตาด</t>
-  </si>
-  <si>
-    <t>- ลักษณะโลงศพที่ตกแต่งด้วยผ้าตาดจับจีบ 
-- ทรงสี่เหลี่ยมผืนผ้า 
-- ภายนอกเป็นผ้าตาดจับจีบย่นรอบใบ 
-- ข้างในบุด้วยผ้า</t>
-  </si>
-  <si>
-    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin3.png</t>
-  </si>
-  <si>
-    <t>ธูป</t>
-  </si>
-  <si>
-    <t>เกลียว</t>
-  </si>
-  <si>
-    <t>ขนาด 23 นิ้ว หรือประมาณ 59 เซนติเมตร ใน 1 ห่อ มีจำนวน 3 ก้าน</t>
-  </si>
-  <si>
-    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\spiral incense stick1.png</t>
-  </si>
-  <si>
-    <t>ไหว้พระปกติ</t>
-  </si>
-  <si>
-    <t>ขนาด 10 นิ้ว หรือประมาณ 25 เซนติเมตร จำนวน 90 ดอก</t>
-  </si>
-  <si>
-    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\proincensecandles1.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,16 +119,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -193,10 +145,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -354,7 +306,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -363,13 +315,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -379,7 +331,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -388,7 +340,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -397,7 +349,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -407,12 +359,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -443,7 +395,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -462,7 +414,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -474,91 +426,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="n">
-        <v>18000.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -566,12 +466,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -620,12 +520,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -634,16 +534,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -651,7 +551,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -696,87 +596,42 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -785,15 +640,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -802,21 +657,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{721E74DE-4207-48CC-B43A-12B87972D85E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="1" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Coffin" r:id="rId1" sheetId="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>username</t>
   </si>
@@ -61,30 +60,6 @@
     <t>สี</t>
   </si>
   <si>
-    <t>แบบ F</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>ดอกไม้สด</t>
-  </si>
-  <si>
-    <t>ทดสอบ</t>
-  </si>
-  <si>
-    <t>ดอกไม้แห้ง,ดอกไม้สด</t>
-  </si>
-  <si>
-    <t>300,500</t>
-  </si>
-  <si>
-    <t>สีฟ้า,ม่วง</t>
-  </si>
-  <si>
     <t>ชุดอาหารว่าง</t>
   </si>
   <si>
@@ -144,17 +119,53 @@
   <si>
     <t>C:\Users\User\Downloads\SnackBox5.png</t>
   </si>
+  <si>
+    <t>ทรงรี</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO\Pictures\eng_page-0002.jpg</t>
+  </si>
+  <si>
+    <t>ผ้า,ดอกไม้ปลอม</t>
+  </si>
+  <si>
+    <t>1500/1200</t>
+  </si>
+  <si>
+    <t>ฟ้า,ชมพู,หลากสี</t>
+  </si>
+  <si>
+    <t>ทรงกลม</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO\Pictures\eng_page-0001.jpg</t>
+  </si>
+  <si>
+    <t>เครื่องไทยธรรม</t>
+  </si>
+  <si>
+    <t>ชุดที่1</t>
+  </si>
+  <si>
+    <t>sdffvsdfsdfsdds</t>
+  </si>
+  <si>
+    <t>ชุดที่2</t>
+  </si>
+  <si>
+    <t>aesdwaqdwfrwef</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -183,7 +194,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="ปกติ" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
@@ -199,9 +210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
@@ -239,9 +250,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,7 +287,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -484,30 +495,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.25" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.75" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.75" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.90625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.26953125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -515,24 +526,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A3:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.7265625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.90625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -552,38 +563,44 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -592,16 +609,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="9.90625" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -609,19 +626,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,26 +685,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.75" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -695,40 +712,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.25" collapsed="true"/>
-  </cols>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.75" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="11.26953125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -742,72 +740,30 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
+      <c r="D3" t="n">
+        <v>180.0</v>
       </c>
     </row>
   </sheetData>
@@ -815,13 +771,117 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.08984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.7265625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16337F-8FDF-40C7-9A18-0BDD6B5AE2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4E97F57B-8E51-45F1-ACDB-CFC30BC42E2F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
-    <sheet name="SandalWood" sheetId="10" r:id="rId10"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="SandalWood" r:id="rId10" sheetId="10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>ราคา</t>
   </si>
@@ -53,73 +53,75 @@
     <t>1500000</t>
   </si>
   <si>
+    <t>ดอกไม้จันทน์</t>
+  </si>
+  <si>
+    <t>แบบดอก</t>
+  </si>
+  <si>
+    <t>ดอกไม้จันทน์สำหรับแขกร่วมงานฌาปนกิจ 1 ห่อ บรรจุสินค้าจำนวน 100 ชิ้น</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Desktop\SoftwareProjectKhim\src\wreath5.png</t>
+  </si>
+  <si>
+    <t>กระดาษ</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>สีขาวนวล</t>
+  </si>
+  <si>
     <t>กรอบรูป</t>
   </si>
   <si>
+    <t>กรอบหลุยส์ทอง</t>
+  </si>
+  <si>
+    <t>กรอบหลุยส์ทอง ผลิตจากไม้แท้ เคลือบด้วยสีทอง ลวดลายสวยงาม มีความแข็งแรงทนทาน
+ขนาด 12x18 นิ้ว</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Pictures\Frame1.png</t>
+  </si>
+  <si>
     <t>กรอบไม้</t>
   </si>
   <si>
-    <t>กรอบไม้ทำจากไม้เส้นพลาสติก</t>
-  </si>
-  <si>
-    <t>C:\Users\ASUS\Desktop\SoftwareProjectKhim\src\frame2.png</t>
-  </si>
-  <si>
-    <t>ไม้</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>ดอกไม้จันทน์</t>
-  </si>
-  <si>
-    <t>แบบดอก</t>
-  </si>
-  <si>
-    <t>ดอกไม้จันทน์สำหรับแขกร่วมงานฌาปนกิจ 1 ห่อ บรรจุสินค้าจำนวน 100 ชิ้น</t>
-  </si>
-  <si>
-    <t>C:\Users\ASUS\Desktop\SoftwareProjectKhim\src\wreath5.png</t>
-  </si>
-  <si>
-    <t>กระดาษ</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>สีขาวนวล</t>
-  </si>
-  <si>
-    <t>กรอบหลุยส์ทอง</t>
-  </si>
-  <si>
-    <t>กรอบหลุยส์ทอง ทำจากไม้ เคลือบด้วยสีทอง มีความแข็งแรงทนทาน</t>
-  </si>
-  <si>
-    <t>C:\Users\ASUS\Pictures\Frame1.png</t>
-  </si>
-  <si>
-    <t>599</t>
+    <t>กรอบไม้ ผลิตจากไม้เส้นพลาสติก(ไม้Polystyrene) มีลักษณะคล้ายไม้แท้ สามารถกันน้ำกันปลวกได้
+ขนาด 12x18 นิ้ว</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Pictures\Frame2.png</t>
+  </si>
+  <si>
+    <t>กรอบพลาสติก</t>
+  </si>
+  <si>
+    <t>กรอบพลาสติก ผลิตจากพลาสติก มีน้ำหนักเบา สามารถกันน้ำได้ ทำความสะอาดง่าย
+ขนาด 12x18 นิ้ว</t>
+  </si>
+  <si>
+    <t>C:\Users\ASUS\Pictures\Frame3.png</t>
   </si>
   <si>
     <t>กรอบอะลูมิเนียม</t>
   </si>
   <si>
-    <t>กรอบรูปอะลูมิเนียมสีเงิน ให้ความรู้สึกเรียบหรู ทำจากวัสดุอะลูมิเนียม</t>
+    <t>กรอบอะลูมิเนียม ผลิตจากอะลูมิเนียม มีความแข็งแรง ทนทาน มีน้ำหนักเบา
+ขนาด 12x18 นิ้ว</t>
   </si>
   <si>
     <t>C:\Users\ASUS\Pictures\Frame4.png</t>
-  </si>
-  <si>
-    <t>อะลูมิเนียม</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,16 +149,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -173,10 +175,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -334,7 +336,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -343,13 +345,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -359,7 +361,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -368,7 +370,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -377,7 +379,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -387,12 +389,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -423,7 +425,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -442,7 +444,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -454,7 +456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -463,30 +465,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653C11F8-1256-4417-B742-39B9D2204DC3}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653C11F8-1256-4417-B742-39B9D2204DC3}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -494,15 +496,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="66.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="53.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="66.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="53.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -522,32 +524,32 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -555,12 +557,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -601,12 +603,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -615,33 +617,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="56.77734375" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="90.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="56.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -650,97 +652,99 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>599.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="n">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" t="n">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
+      <c r="D5" t="n">
+        <v>499.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -749,15 +753,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -766,21 +770,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{721E74DE-4207-48CC-B43A-12B87972D85E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAE35F7-70AD-4896-ADD7-927BDB3B5D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
-    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
-    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
-    <sheet name="frame" r:id="rId4" sheetId="5"/>
-    <sheet name="Candles" r:id="rId5" sheetId="9"/>
-    <sheet name="Incense" r:id="rId6" sheetId="6"/>
-    <sheet name="Offering" r:id="rId7" sheetId="7"/>
-    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
-    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
+    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
+    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
+    <sheet name="frame" sheetId="5" r:id="rId4"/>
+    <sheet name="Candles" sheetId="9" r:id="rId5"/>
+    <sheet name="Incense" sheetId="6" r:id="rId6"/>
+    <sheet name="Offering" sheetId="7" r:id="rId7"/>
+    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
+    <sheet name="Package" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>username</t>
   </si>
@@ -61,30 +61,6 @@
     <t>สี</t>
   </si>
   <si>
-    <t>แบบ F</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>ดอกไม้สด</t>
-  </si>
-  <si>
-    <t>ทดสอบ</t>
-  </si>
-  <si>
-    <t>ดอกไม้แห้ง,ดอกไม้สด</t>
-  </si>
-  <si>
-    <t>300,500</t>
-  </si>
-  <si>
-    <t>สีฟ้า,ม่วง</t>
-  </si>
-  <si>
     <t>ชุดอาหารว่าง</t>
   </si>
   <si>
@@ -143,13 +119,24 @@
   </si>
   <si>
     <t>C:\Users\User\Downloads\SnackBox5.png</t>
+  </si>
+  <si>
+    <t>ธูป&amp;เทียน</t>
+  </si>
+  <si>
+    <t>ธูปแพ็ค24ก้าน</t>
+  </si>
+  <si>
+    <t>ทดสอบบบบบบบบบบ</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,16 +164,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="ปกติ" xfId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -203,10 +190,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -364,7 +351,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -373,13 +360,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -389,7 +376,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -398,7 +385,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -407,7 +394,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -417,12 +404,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -453,7 +440,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -472,7 +459,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -484,7 +471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -493,43 +480,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.25" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.75" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.75" collapsed="true"/>
+    <col min="1" max="1" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.75" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A3:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.875" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -552,47 +539,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -601,16 +554,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="9.875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -618,7 +571,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="1" max="1" width="10.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -663,39 +616,73 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <cols>
+    <col min="1" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="44.375" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.75" collapsed="true"/>
+    <col min="1" max="1" width="10.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -704,31 +691,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.25" collapsed="true"/>
+    <col min="1" max="1" width="11.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.75" collapsed="true"/>
+    <col min="1" max="1" width="10.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -740,89 +727,89 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,50 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
-    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
-    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
-    <sheet name="frame" r:id="rId4" sheetId="5"/>
-    <sheet name="Candles" r:id="rId5" sheetId="9"/>
-    <sheet name="Incense" r:id="rId6" sheetId="6"/>
-    <sheet name="Offering" r:id="rId7" sheetId="7"/>
-    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
-    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
+    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
+    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
+    <sheet name="frame" sheetId="5" r:id="rId4"/>
+    <sheet name="Candles" sheetId="9" r:id="rId5"/>
+    <sheet name="Incense" sheetId="6" r:id="rId6"/>
+    <sheet name="Offering" sheetId="7" r:id="rId7"/>
+    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
+    <sheet name="Package" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>จำนวนสั่งซื้อ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>ราคา</t>
   </si>
   <si>
-    <t xml:space="preserve">แบบที่ 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">แบบที่ 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">แบบที่ 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">แบบที่ 2 </t>
-  </si>
-  <si>
     <t>พวงหรีด</t>
   </si>
   <si>
@@ -135,9 +117,6 @@
     <t>ฟ้า,ชมพู,หลากสี</t>
   </si>
   <si>
-    <t>ทรงกลม</t>
-  </si>
-  <si>
     <t>C:\Users\LENOVO\Pictures\eng_page-0001.jpg</t>
   </si>
   <si>
@@ -154,13 +133,54 @@
   </si>
   <si>
     <t>aesdwaqdwfrwef</t>
+  </si>
+  <si>
+    <t>ชุดที่ 5</t>
+  </si>
+  <si>
+    <t>ประกอบไปด้วย</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>กรอบรูป</t>
+  </si>
+  <si>
+    <t>กรอบไม้</t>
+  </si>
+  <si>
+    <t>ทำจากไม้</t>
+  </si>
+  <si>
+    <t>กรอบพลาสติก</t>
+  </si>
+  <si>
+    <t>ทำจากพลาสติก</t>
+  </si>
+  <si>
+    <t>กรอบบบบบบ</t>
+  </si>
+  <si>
+    <t>dsddddddddddd</t>
+  </si>
+  <si>
+    <t>กรอบกรอบกรอบ</t>
+  </si>
+  <si>
+    <t>cccccccccccccccccccccccc</t>
+  </si>
+  <si>
+    <t>ชุดที่3</t>
+  </si>
+  <si>
+    <t>ชุดที่4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,16 +208,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -214,10 +234,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -252,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +395,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -384,13 +404,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -400,7 +420,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -409,7 +429,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -418,7 +438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -428,12 +448,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -464,7 +484,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -483,7 +503,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -495,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -504,112 +524,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.90625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.08984375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.453125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.26953125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7265625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.453125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.08984375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.7265625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.90625" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -618,271 +618,342 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.90625" collapsed="true"/>
+    <col min="1" max="1" width="9.90625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="N1" sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="A1:O5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>180.0</v>
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.08984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.08984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
+      <c r="D7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36FA69-9695-4935-9425-DC5A3ACA0BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE971065-6323-45D3-9D14-DDAA1B2B421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coffin" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t>1200/1500</t>
+  </si>
+  <si>
+    <t>ธูป</t>
+  </si>
+  <si>
+    <t>แบบเกลียว</t>
+  </si>
+  <si>
+    <t>ขนาด 23 นิ้ว หรือประมาณ 59 เซนติเมตร ใน 1 ห่อ มีจำนวน 3 ก้าน</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Pictures\2.png</t>
+  </si>
+  <si>
+    <t>แท่ง</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Pictures\11.png</t>
   </si>
 </sst>
 </file>
@@ -429,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="A1:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,9 +632,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -624,7 +644,50 @@
     <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coffin" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>ราคา</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>อะลูมิเนียม</t>
+  </si>
+  <si>
+    <t>้พะ้หพะ้</t>
+  </si>
+  <si>
+    <t>้พะ้</t>
+  </si>
+  <si>
+    <t>้พะั้</t>
   </si>
 </sst>
 </file>
@@ -625,7 +634,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -706,6 +715,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE971065-6323-45D3-9D14-DDAA1B2B421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7CB200C2-C9A8-4CAD-9645-4FE6B1BF86F9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>username</t>
   </si>
@@ -98,12 +98,76 @@
   </si>
   <si>
     <t>C:\Users\Khao\Pictures\11.png</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>เทียนไหว้พระ</t>
+  </si>
+  <si>
+    <t>ขนาด 0.6 x 8.8 เซนติเมตร ใน 1 กล่อง มีทั้งหมด 20 เล่ม 40 บาท</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\ProCandles1.java</t>
+  </si>
+  <si>
+    <t>ไหว้พระ</t>
+  </si>
+  <si>
+    <t>ขนาด 0.8 x 13.5 เซนติเมตร ใน 1 กล่อง มีทั้งหมด 15 เล่ม 50 บาท</t>
+  </si>
+  <si>
+    <t>เทียนไหว้พระะะะ</t>
+  </si>
+  <si>
+    <t>เทียน</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin2.png</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>ขนาด 20 นิ้ว</t>
+  </si>
+  <si>
+    <t>ขนาด 22 นิ้ว</t>
+  </si>
+  <si>
+    <t>ขนาด 24 นิ้ว</t>
+  </si>
+  <si>
+    <t>ผ้าตาด</t>
+  </si>
+  <si>
+    <t>- ลักษณะโลงศพที่ตกแต่งด้วยผ้าตาดจับจีบ 
+- ทรงสี่เหลี่ยมผืนผ้า 
+- ภายนอกเป็นผ้าตาดจับจีบย่นรอบใบ 
+- ข้างในบุด้วยผ้า</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin3.png</t>
+  </si>
+  <si>
+    <t>สีทอง</t>
+  </si>
+  <si>
+    <t>- ลักษณะหีบศพที่ตกแต่งด้วยลวดลายดอกไม้ 
+- ทรงสี่เหลี่ยมผืนผ้า 
+- ภายนอกทาด้วยสีทอง 
+- ข้างในบุด้วยผ้า</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin4.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,16 +201,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -163,10 +227,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -324,7 +388,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -333,13 +397,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -349,7 +413,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -358,7 +422,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -367,7 +431,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -377,12 +441,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -413,7 +477,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -432,7 +496,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -444,39 +508,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:F3"/>
+      <selection activeCell="G3" sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -484,12 +609,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -538,12 +663,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -552,16 +677,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -569,7 +694,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -614,25 +739,87 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="68.5546875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -640,9 +827,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -689,12 +876,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -703,15 +890,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -720,21 +907,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAE35F7-70AD-4896-ADD7-927BDB3B5D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C6CDC4C7-1F01-4491-9A47-8618BE489FE6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="8" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>username</t>
   </si>
@@ -131,12 +131,73 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>แบบที่1</t>
+  </si>
+  <si>
+    <t>jsagxvacgahscvhagscagcga</t>
+  </si>
+  <si>
+    <t>C:\Users\User\Desktop\Background\black cat.png</t>
+  </si>
+  <si>
+    <t>ผ้า, ดอกไม้</t>
+  </si>
+  <si>
+    <t>200/300</t>
+  </si>
+  <si>
+    <t>ฟ้า, ม่วง</t>
+  </si>
+  <si>
+    <t>แบบที่2</t>
+  </si>
+  <si>
+    <t>cnscabchaoica</t>
+  </si>
+  <si>
+    <t>C:\Users\User\Desktop\Background\_f2u__sunset_summer___wallpaper_background_by_xxbunnyberryxx_dg55r5k-fullview.jpg</t>
+  </si>
+  <si>
+    <t>แพ็คเกจ</t>
+  </si>
+  <si>
+    <t>แพ็คเกจ1</t>
+  </si>
+  <si>
+    <t>ห่ก่หา่ด้หด้หดหด่่ห่ดกสหด้า้หด</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>แพ็คเกจ2</t>
+  </si>
+  <si>
+    <t>nakjkjfakhfjkabfkaj</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>แพ็คเกจ3</t>
+  </si>
+  <si>
+    <t>หดาหสร่่าาาาาาาาาาาหหสวฟฟสหวสสสสสสสสกสวหสกวหส</t>
+  </si>
+  <si>
+    <t>C:\Users\User\Desktop\Background\_f2u__flower_shop___wallpaper_background_freebie_by_xxbunnyberryxx_dfzmd7c-pre.jpg</t>
+  </si>
+  <si>
+    <t>150000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,16 +225,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="ปกติ" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -190,10 +251,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -351,7 +412,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -360,13 +421,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -376,7 +437,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -385,7 +446,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -394,7 +455,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -404,12 +465,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -440,7 +501,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -459,7 +520,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -471,7 +532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -480,43 +541,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.75" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.75" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.75" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -539,13 +600,53 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -554,16 +655,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -571,7 +672,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -616,21 +717,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="44.375" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="19.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="44.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -662,27 +763,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.75" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -691,16 +792,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.25" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D7"/>
@@ -708,9 +809,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -798,18 +899,81 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7"/>
+    <workbookView activeTab="9" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="Sandalwood" r:id="rId10" sheetId="10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>ราคา</t>
   </si>
@@ -175,12 +176,28 @@
   </si>
   <si>
     <t>ชุดที่4</t>
+  </si>
+  <si>
+    <t>ดอกไม้จันทน์</t>
+  </si>
+  <si>
+    <t>แบบดอก</t>
+  </si>
+  <si>
+    <t>จำนวนดอกต่อแพ็ค</t>
+  </si>
+  <si>
+    <t>แบบช่อ</t>
+  </si>
+  <si>
+    <t>จำนวนดอกใน1ช่อ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,16 +225,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -234,10 +251,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -272,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +412,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -404,13 +421,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -420,7 +437,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -429,7 +446,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -438,7 +455,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -448,12 +465,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -484,7 +501,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -503,7 +520,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -515,7 +532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -524,30 +541,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.90625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.26953125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.08984375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.90625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.26953125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="A3:F3"/>
@@ -555,12 +627,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7265625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.7265625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -604,12 +676,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -618,16 +690,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.90625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N4"/>
@@ -635,7 +707,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -709,40 +781,40 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -750,7 +822,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.26953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -824,23 +896,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.08984375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.08984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -942,18 +1014,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>ราคา</t>
   </si>
@@ -191,6 +191,45 @@
   </si>
   <si>
     <t>จำนวนดอกใน1ช่อ</t>
+  </si>
+  <si>
+    <t>ของชำร่วย</t>
+  </si>
+  <si>
+    <t>ช้อน</t>
+  </si>
+  <si>
+    <t>sssssss</t>
+  </si>
+  <si>
+    <t>ยาดม</t>
+  </si>
+  <si>
+    <t>กกกกกกกกกกกกกกกกกก</t>
+  </si>
+  <si>
+    <t>พัด</t>
+  </si>
+  <si>
+    <t>ปปปปปปปปปปปปป</t>
+  </si>
+  <si>
+    <t>หวี</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>กระจก</t>
+  </si>
+  <si>
+    <t>csacscsc</t>
+  </si>
+  <si>
+    <t>หหฟแป</t>
+  </si>
+  <si>
+    <t>adasda</t>
   </si>
 </sst>
 </file>
@@ -682,7 +721,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
@@ -692,7 +731,106 @@
   <cols>
     <col min="1" max="1" customWidth="true" width="9.90625" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>

--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
-    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
-    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
-    <sheet name="frame" r:id="rId4" sheetId="5"/>
-    <sheet name="Candles" r:id="rId5" sheetId="9"/>
-    <sheet name="Incense" r:id="rId6" sheetId="6"/>
-    <sheet name="Offering" r:id="rId7" sheetId="7"/>
-    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
-    <sheet name="Package" r:id="rId9" sheetId="8"/>
-    <sheet name="Sandalwood" r:id="rId10" sheetId="10"/>
+    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
+    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
+    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
+    <sheet name="frame" sheetId="5" r:id="rId4"/>
+    <sheet name="Candles" sheetId="9" r:id="rId5"/>
+    <sheet name="Incense" sheetId="6" r:id="rId6"/>
+    <sheet name="Offering" sheetId="7" r:id="rId7"/>
+    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
+    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Sandalwood" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>ราคา</t>
   </si>
@@ -230,13 +230,18 @@
   </si>
   <si>
     <t>adasda</t>
+  </si>
+  <si>
+    <t>แบบที่ 8</t>
+  </si>
+  <si>
+    <t>ประกอบด้วยยยยยยยยยยยยยยยยยยยยยย</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,16 +269,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -285,15 +290,58 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198249</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1968501</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>29515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3747899" y="946150"/>
+          <a:ext cx="1770252" cy="1661465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -328,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,7 +411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,7 +499,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -460,13 +508,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -476,7 +524,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -485,7 +533,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -494,7 +542,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,12 +552,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -540,7 +588,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -559,7 +607,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -571,7 +619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -580,36 +628,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.90625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.08984375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.453125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.26953125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7265625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.453125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.08984375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -623,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -633,11 +681,11 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="n">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -647,18 +695,18 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="n">
-        <v>80.0</v>
+      <c r="D3">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="A3:F3"/>
@@ -666,12 +714,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.7265625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.90625" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -715,13 +763,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
@@ -729,10 +777,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.90625" collapsed="true"/>
+    <col min="1" max="1" width="9.90625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -746,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -756,11 +804,11 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -770,11 +818,11 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -784,11 +832,11 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -798,11 +846,11 @@
       <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -812,11 +860,11 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -826,18 +874,18 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="n">
-        <v>12.0</v>
+      <c r="D7">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N4"/>
@@ -845,7 +893,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -919,48 +967,50 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.54296875" customWidth="1"/>
+    <col min="3" max="3" width="35.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1033,14 +1083,26 @@
         <v>180</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="A8:D8"/>
@@ -1048,9 +1110,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.08984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.08984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1152,18 +1214,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1FF8C-5728-4BAB-88BD-07FBFCD47DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coffin" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>ราคา</t>
   </si>
@@ -237,11 +238,17 @@
   <si>
     <t>ประกอบด้วยยยยยยยยยยยยยยยยยยยยยย</t>
   </si>
+  <si>
+    <t>รายละเอียดแบบจัดเต็ม</t>
+  </si>
+  <si>
+    <t>form_9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,19 +302,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>198249</xdr:colOff>
+      <xdr:colOff>7749</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>48261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1968501</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>29515</xdr:rowOff>
+      <xdr:colOff>1592580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -320,8 +333,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3747899" y="946150"/>
-          <a:ext cx="1770252" cy="1661465"/>
+          <a:off x="3490089" y="962661"/>
+          <a:ext cx="1584831" cy="149859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2499193</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15777</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3268813" y="1173480"/>
+          <a:ext cx="2675324" cy="83820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -334,9 +391,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -374,9 +431,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +468,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,30 +676,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.90625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.26953125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.08984375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -650,14 +707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -671,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -685,7 +742,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -705,24 +762,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.90625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -742,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -768,19 +825,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -794,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -808,7 +865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -822,7 +879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -836,7 +893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -850,7 +907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -864,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -884,19 +941,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -910,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -924,7 +981,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -938,7 +995,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -952,7 +1009,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -972,26 +1029,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -999,21 +1056,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.54296875" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1027,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1041,7 +1098,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1055,7 +1112,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1069,7 +1126,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1083,7 +1140,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1092,6 +1149,17 @@
       </c>
       <c r="D6">
         <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>256000</v>
       </c>
     </row>
   </sheetData>
@@ -1101,21 +1169,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.08984375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1157,7 +1225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1199,7 +1267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1219,12 +1287,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{7CB200C2-C9A8-4CAD-9645-4FE6B1BF86F9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170CE7A-F28C-480A-84CD-9544CCB788B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
-    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
-    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
-    <sheet name="frame" r:id="rId4" sheetId="5"/>
-    <sheet name="Candles" r:id="rId5" sheetId="9"/>
-    <sheet name="Incense" r:id="rId6" sheetId="6"/>
-    <sheet name="Offering" r:id="rId7" sheetId="7"/>
-    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
-    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
+    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
+    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
+    <sheet name="frame" sheetId="5" r:id="rId4"/>
+    <sheet name="Candles" sheetId="9" r:id="rId5"/>
+    <sheet name="Incense" sheetId="6" r:id="rId6"/>
+    <sheet name="Offering" sheetId="7" r:id="rId7"/>
+    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
+    <sheet name="Package" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>username</t>
   </si>
@@ -80,51 +80,6 @@
   </si>
   <si>
     <t>1200/1500</t>
-  </si>
-  <si>
-    <t>ธูป</t>
-  </si>
-  <si>
-    <t>แบบเกลียว</t>
-  </si>
-  <si>
-    <t>ขนาด 23 นิ้ว หรือประมาณ 59 เซนติเมตร ใน 1 ห่อ มีจำนวน 3 ก้าน</t>
-  </si>
-  <si>
-    <t>C:\Users\Khao\Pictures\2.png</t>
-  </si>
-  <si>
-    <t>แท่ง</t>
-  </si>
-  <si>
-    <t>C:\Users\Khao\Pictures\11.png</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>เทียนไหว้พระ</t>
-  </si>
-  <si>
-    <t>ขนาด 0.6 x 8.8 เซนติเมตร ใน 1 กล่อง มีทั้งหมด 20 เล่ม 40 บาท</t>
-  </si>
-  <si>
-    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\ProCandles1.java</t>
-  </si>
-  <si>
-    <t>ไหว้พระ</t>
-  </si>
-  <si>
-    <t>ขนาด 0.8 x 13.5 เซนติเมตร ใน 1 กล่อง มีทั้งหมด 15 เล่ม 50 บาท</t>
-  </si>
-  <si>
-    <t>เทียนไหว้พระะะะ</t>
-  </si>
-  <si>
-    <t>เทียน</t>
-  </si>
-  <si>
-    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin2.png</t>
   </si>
   <si>
     <t>ชื่อ</t>
@@ -151,12 +106,12 @@
     <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin3.png</t>
   </si>
   <si>
-    <t>สีทอง</t>
-  </si>
-  <si>
-    <t>- ลักษณะหีบศพที่ตกแต่งด้วยลวดลายดอกไม้ 
-- ทรงสี่เหลี่ยมผืนผ้า 
-- ภายนอกทาด้วยสีทอง 
+    <t>แบบมุก</t>
+  </si>
+  <si>
+    <t>- ลักษณะหีบศพที่ตกแต่งด้วยลายเทพนม 
+- ทรงสี่หลี่ยมผืนผ้า 
+- ภายนอกเป็นสีดำ 
 - ข้างในบุด้วยผ้า</t>
   </si>
   <si>
@@ -167,7 +122,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,16 +155,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -227,10 +181,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -388,7 +342,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -397,13 +351,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -413,7 +367,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -422,7 +376,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -431,7 +385,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -441,12 +395,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -477,7 +431,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -496,7 +450,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -508,100 +462,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0</v>
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>18000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9000.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0</v>
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>8000</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -609,12 +564,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -663,12 +618,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -677,16 +632,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -694,7 +649,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -739,149 +694,49 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="68.5546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="68.5546875" collapsed="false"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -890,15 +745,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -907,21 +762,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C5D4183C-C197-4838-BE5C-9B2D1E50F71E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="8"/>
+    <workbookView activeTab="8" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -68,11 +69,33 @@
   <si>
     <t>1500000</t>
   </si>
+  <si>
+    <t>แพ็คเกจ</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>- โลงศพลายเทพพนม ราคา 8,000 บาท
+- หีบศพลายเทพพนม ขนาด 20 นิ้ว
+- บุนวมภายในหีบศพ
+- ธูป-เทียน สำหรับทำพิธีสวด 3 คืน
+- ดอกไม้จันทน์ 100 ดอก ช่อประธาน 3 ช่อ
+- ชุดรดน้ำศพ มาลัยกรอบรูป 1 
+- ผ้าแพรคลุมหน้า
+- ดอกไม้ประดับหน้าศพ (ดอกไม้ปรับเปลี่ยนตามฤดูกาล)
+- ดอกไม้ถวายพระ 8 กำ
+- อุปกรณ์เชิญวิญญาณ</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,16 +123,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -122,14 +145,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -162,9 +185,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,7 +222,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -287,7 +310,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -296,13 +319,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +335,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +344,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +353,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,12 +363,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -376,7 +399,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -395,7 +418,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -407,55 +430,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.26953125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.1796875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7265625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -475,7 +498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -493,41 +516,41 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,79 +592,124 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.77734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="n">
+        <v>13000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="n">
+        <v>19000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView activeTab="6" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
-    <sheet name="Sandalwood" sheetId="10" r:id="rId10"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="Sandalwood" r:id="rId10" sheetId="10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>ราคา</t>
   </si>
@@ -236,12 +236,55 @@
   </si>
   <si>
     <t>ประกอบด้วยยยยยยยยยยยยยยยยยยยยยย</t>
+  </si>
+  <si>
+    <t>ธูป</t>
+  </si>
+  <si>
+    <t>ธูปเกลียว</t>
+  </si>
+  <si>
+    <t>ปหกแหกแหกแกห</t>
+  </si>
+  <si>
+    <t>แบบ2</t>
+  </si>
+  <si>
+    <t>dcscdsdcds</t>
+  </si>
+  <si>
+    <t>แบบ3</t>
+  </si>
+  <si>
+    <t>adccsdccc</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>เบอร์ 1</t>
+  </si>
+  <si>
+    <t>dedd</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ewdwedwedew</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>dfdfsdfsd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,16 +312,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -291,7 +334,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -307,7 +350,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr descr="Picture" id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -338,10 +381,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -376,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +454,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +542,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -508,13 +551,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -524,7 +567,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -533,7 +576,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -542,7 +585,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -552,12 +595,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -588,7 +631,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -607,7 +650,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -619,7 +662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -628,30 +671,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.90625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.26953125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.08984375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.90625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.26953125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,13 +743,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="A3:F3"/>
@@ -714,12 +757,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7265625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.7265625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -763,13 +806,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
@@ -777,7 +820,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -879,13 +922,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N4"/>
@@ -893,7 +936,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -967,40 +1010,154 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -1008,9 +1165,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.54296875" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1095,14 +1252,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="A8:D8"/>
@@ -1110,9 +1267,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.08984375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.08984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1214,18 +1371,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{C5D4183C-C197-4838-BE5C-9B2D1E50F71E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FB59B2-7BDE-4DCF-B15C-C5D27C62EDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="8" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
-    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
-    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
-    <sheet name="frame" r:id="rId4" sheetId="5"/>
-    <sheet name="Candles" r:id="rId5" sheetId="9"/>
-    <sheet name="Incense" r:id="rId6" sheetId="6"/>
-    <sheet name="Offering" r:id="rId7" sheetId="7"/>
-    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
-    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
+    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
+    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
+    <sheet name="frame" sheetId="5" r:id="rId4"/>
+    <sheet name="Candles" sheetId="9" r:id="rId5"/>
+    <sheet name="Incense" sheetId="6" r:id="rId6"/>
+    <sheet name="Offering" sheetId="7" r:id="rId7"/>
+    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
+    <sheet name="Package" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -90,12 +90,29 @@
   <si>
     <t>2</t>
   </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>หดดกอกดิอกเกด</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ไกำดำดำดำดำ</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ดำ้ดนรำ้ดนรำ้นรำ้รดำ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,16 +140,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -149,10 +167,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -310,7 +328,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -319,13 +337,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -335,7 +353,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -344,7 +362,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -353,7 +371,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -363,12 +381,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -399,7 +417,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -418,7 +436,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -430,7 +448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -439,30 +457,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -470,12 +488,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -516,12 +534,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -530,16 +548,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -547,7 +565,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -592,39 +610,39 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -633,15 +651,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -650,28 +668,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -685,31 +704,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" t="n">
-        <v>13000.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3"/>
-      <c r="D3" t="n">
-        <v>19000.0</v>
+      <c r="D3" s="1">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170CE7A-F28C-480A-84CD-9544CCB788B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A8C09931-BA5F-45D3-AA2B-390DE09D9FAF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="8880" windowWidth="17280" xWindow="1884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1884"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -97,9 +97,9 @@
     <t>ผ้าตาด</t>
   </si>
   <si>
-    <t>- ลักษณะโลงศพที่ตกแต่งด้วยผ้าตาดจับจีบ 
+    <t>- ลักษณะหีบศพที่ตกแต่งด้วยลวดลายดอกไม้ 
 - ทรงสี่เหลี่ยมผืนผ้า 
-- ภายนอกเป็นผ้าตาดจับจีบย่นรอบใบ 
+- ภายนอกทาด้วยสีทอง 
 - ข้างในบุด้วยผ้า</t>
   </si>
   <si>
@@ -115,13 +115,14 @@
 - ข้างในบุด้วยผ้า</t>
   </si>
   <si>
-    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin4.png</t>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin5.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,16 +156,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -181,10 +182,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -342,7 +343,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -351,13 +352,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -367,7 +368,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -376,7 +377,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -385,7 +386,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -395,12 +396,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -431,7 +432,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -450,7 +451,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -462,34 +463,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -509,54 +510,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>18000</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="C2" t="n">
+        <v>18000.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>8000</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="C3" t="n">
+        <v>8000.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -564,12 +565,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -618,12 +619,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -632,16 +633,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -649,7 +650,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -694,29 +695,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="68.5546875" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="68.5546875" collapsed="false"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -725,18 +726,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -745,15 +746,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -762,21 +763,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{A8C09931-BA5F-45D3-AA2B-390DE09D9FAF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6789FEEE-3D12-409F-A1D4-BA4E824E1EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="8880" windowWidth="17280" xWindow="1884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1884"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
-    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
-    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
-    <sheet name="frame" r:id="rId4" sheetId="5"/>
-    <sheet name="Candles" r:id="rId5" sheetId="9"/>
-    <sheet name="Incense" r:id="rId6" sheetId="6"/>
-    <sheet name="Offering" r:id="rId7" sheetId="7"/>
-    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
-    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
+    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
+    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
+    <sheet name="frame" sheetId="5" r:id="rId4"/>
+    <sheet name="Candles" sheetId="9" r:id="rId5"/>
+    <sheet name="Incense" sheetId="6" r:id="rId6"/>
+    <sheet name="Offering" sheetId="7" r:id="rId7"/>
+    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
+    <sheet name="Package" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -80,49 +80,12 @@
   </si>
   <si>
     <t>1200/1500</t>
-  </si>
-  <si>
-    <t>ชื่อ</t>
-  </si>
-  <si>
-    <t>ขนาด 20 นิ้ว</t>
-  </si>
-  <si>
-    <t>ขนาด 22 นิ้ว</t>
-  </si>
-  <si>
-    <t>ขนาด 24 นิ้ว</t>
-  </si>
-  <si>
-    <t>ผ้าตาด</t>
-  </si>
-  <si>
-    <t>- ลักษณะหีบศพที่ตกแต่งด้วยลวดลายดอกไม้ 
-- ทรงสี่เหลี่ยมผืนผ้า 
-- ภายนอกทาด้วยสีทอง 
-- ข้างในบุด้วยผ้า</t>
-  </si>
-  <si>
-    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin3.png</t>
-  </si>
-  <si>
-    <t>แบบมุก</t>
-  </si>
-  <si>
-    <t>- ลักษณะหีบศพที่ตกแต่งด้วยลายเทพนม 
-- ทรงสี่หลี่ยมผืนผ้า 
-- ภายนอกเป็นสีดำ 
-- ข้างในบุด้วยผ้า</t>
-  </si>
-  <si>
-    <t>C:\Users\Khao\Desktop\SoftwareProject_khao\src\ToHeaven\coffin5.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,16 +119,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -182,10 +145,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -343,7 +306,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -352,13 +315,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -368,7 +331,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -377,7 +340,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -386,7 +349,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -396,12 +359,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -432,7 +395,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -451,7 +414,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -463,101 +426,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="n">
-        <v>18000.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8000.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+      <selection sqref="A1:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -565,12 +467,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -619,12 +521,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -633,16 +535,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -650,7 +552,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -695,13 +597,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="A1:D4"/>
@@ -709,15 +611,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="68.5546875" collapsed="false"/>
+    <col min="3" max="3" width="68.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -726,18 +628,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -746,15 +648,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -763,21 +665,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
-    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
-    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
-    <sheet name="frame" r:id="rId4" sheetId="5"/>
-    <sheet name="Candles" r:id="rId5" sheetId="9"/>
-    <sheet name="Incense" r:id="rId6" sheetId="6"/>
-    <sheet name="Offering" r:id="rId7" sheetId="7"/>
-    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
-    <sheet name="Package" r:id="rId9" sheetId="8"/>
-    <sheet name="Sandalwood" r:id="rId10" sheetId="10"/>
+    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
+    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
+    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
+    <sheet name="frame" sheetId="5" r:id="rId4"/>
+    <sheet name="Candles" sheetId="9" r:id="rId5"/>
+    <sheet name="Incense" sheetId="6" r:id="rId6"/>
+    <sheet name="Offering" sheetId="7" r:id="rId7"/>
+    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
+    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Sandalwood" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
   <si>
     <t>ราคา</t>
   </si>
@@ -278,13 +278,51 @@
   </si>
   <si>
     <t>dfdfsdfsd</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>ขนาด 20 นิ้ว</t>
+  </si>
+  <si>
+    <t>ขนาด 22 นิ้ว</t>
+  </si>
+  <si>
+    <t>ขนาด 24 นิ้ว</t>
+  </si>
+  <si>
+    <t>ไม้</t>
+  </si>
+  <si>
+    <t>กหดหกอหกดิอกดิ</t>
+  </si>
+  <si>
+    <t>มุก</t>
+  </si>
+  <si>
+    <t>แแแแแแแแแแแแแแ</t>
+  </si>
+  <si>
+    <t>แพ็คเกจ</t>
+  </si>
+  <si>
+    <t>แบบ3000</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย</t>
+  </si>
+  <si>
+    <t>แบบ5000</t>
+  </si>
+  <si>
+    <t>ดหกหฟดกหดหกดกหดกหดกหดกหดหก</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,16 +350,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -334,7 +372,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -350,7 +388,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Picture" id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -381,10 +419,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -419,7 +457,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,7 +492,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,7 +580,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -551,13 +589,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -567,7 +605,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -576,7 +614,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -585,7 +623,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -595,12 +633,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -631,7 +669,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -650,7 +688,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -662,39 +700,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.90625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.08984375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.453125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.26953125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.7265625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.453125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.08984375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>4325</v>
+      </c>
+      <c r="D2">
+        <v>23342</v>
+      </c>
+      <c r="E2">
+        <v>234435</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>545</v>
+      </c>
+      <c r="E3">
+        <v>76645</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -743,13 +842,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="A3:F3"/>
@@ -757,12 +856,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.7265625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.90625" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -806,13 +905,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
@@ -820,7 +919,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.90625" collapsed="true"/>
+    <col min="1" max="1" width="9.90625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -922,13 +1021,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N4"/>
@@ -936,7 +1035,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1010,19 +1109,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1036,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1046,11 +1145,11 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="n">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1060,11 +1159,11 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="n">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1074,27 +1173,27 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="n">
-        <v>50.0</v>
+      <c r="D4">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1108,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1118,11 +1217,11 @@
       <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="n">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1132,11 +1231,11 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1146,28 +1245,28 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="n">
-        <v>40.0</v>
+      <c r="D4">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="35.6328125" collapsed="true"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1252,14 +1351,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="A8:D8"/>
@@ -1267,9 +1366,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.08984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.08984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1371,18 +1470,63 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FB59B2-7BDE-4DCF-B15C-C5D27C62EDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7495286A-C4A4-4386-AD28-899828CDAD66}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="8" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="33">
   <si>
     <t>username</t>
   </si>
@@ -91,28 +91,53 @@
     <t>2</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>หดดกอกดิอกเกด</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>ไกำดำดำดำดำ</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>ดำ้ดนรำ้ดนรำ้นรำ้รดำ</t>
+    <t>สินค้าที่3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>สิน้ค้าที่4</t>
+  </si>
+  <si>
+    <t>สิ้นค้าที่รัก</t>
+  </si>
+  <si>
+    <t>เทสๆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แบบที่ 5 </t>
+  </si>
+  <si>
+    <t>แบบที่ 6</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย</t>
+  </si>
+  <si>
+    <t>เปล่ี่ยน6</t>
+  </si>
+  <si>
+    <t>เพิ่ม7</t>
+  </si>
+  <si>
+    <t>ยร้ไนรกเนไ</t>
+  </si>
+  <si>
+    <t>34545</t>
+  </si>
+  <si>
+    <t>สินค้าที่3กห่กร้หรก้หรน</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,17 +165,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -167,10 +191,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -328,7 +352,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -337,13 +361,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -353,7 +377,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -362,7 +386,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -371,7 +395,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -381,12 +405,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -417,7 +441,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -436,7 +460,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -448,7 +472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -457,30 +481,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -488,12 +512,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -534,12 +558,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -548,16 +572,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -565,7 +589,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -610,39 +634,39 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -651,15 +675,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -668,26 +692,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="59.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="59.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -711,8 +735,8 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>13000</v>
+      <c r="D2" t="n">
+        <v>13000.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -722,19 +746,19 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1">
-        <v>19000</v>
+      <c r="D3" t="n">
+        <v>19000.0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>2424</v>
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -744,8 +768,8 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>2424</v>
+      <c r="D5" t="n">
+        <v>2424.0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -755,12 +779,46 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
-        <v>487</v>
+      <c r="D6" t="n">
+        <v>487.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="n">
+        <v>120.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CE207811-DB24-4E23-9B0C-D6A52B9827E1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="10" firstSheet="3" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Coffin" r:id="rId1" sheetId="1"/>
@@ -17,13 +18,14 @@
     <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
     <sheet name="Package" r:id="rId9" sheetId="8"/>
     <sheet name="Sandalwood" r:id="rId10" sheetId="10"/>
+    <sheet name="Temple" r:id="rId11" sheetId="11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
   <si>
     <t>ราคา</t>
   </si>
@@ -278,18 +280,72 @@
   </si>
   <si>
     <t>dfdfsdfsd</t>
+  </si>
+  <si>
+    <t>รายชื่อวัด</t>
+  </si>
+  <si>
+    <t>จังหวัด</t>
+  </si>
+  <si>
+    <t>ที่อยู่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วัดพระศรีมหาธาตุวรมหาวิหาร </t>
+  </si>
+  <si>
+    <t>กรุงเทพ</t>
+  </si>
+  <si>
+    <t>https://www.google.co.th/maps/place/%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%9E%E0%B8%A3%E0%B8%B0%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%AB%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%95%E0%B8%B8%E0%B8%A7%E0%B8%A3%E0%B8%A1%E0%B8%AB%E0%B8%B2%E0%B8%A7%E0%B8%B4%E0%B8%AB%E0%B8%B2%E0%B8%A3/@13.8741049,100.5903086,16.5z/data=!4m6!3m5!1s0x30e29c5a3a91d177:0x140b15ef77bd4508!8m2!3d13.8742572!4d100.5934384!16s%2Fg%2F120y86cn?hl=th&amp;entry=ttu&amp;g_ep=EgoyMDI0MTAwOS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>วัดโสมนัส</t>
+  </si>
+  <si>
+    <t>https://www.google.co.th/maps/place/%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B9%82%E0%B8%AA%E0%B8%A1%E0%B8%99%E0%B8%B1%E0%B8%AA%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%A7%E0%B8%A3%E0%B8%A7%E0%B8%B4%E0%B8%AB%E0%B8%B2%E0%B8%A3/@13.7606427,100.5079434,17z/data=!3m1!4b1!4m6!3m5!1s0x30e29940e5356021:0x348a0eee0711adbe!8m2!3d13.7606427!4d100.5105183!16s%2Fm%2F0472hd1?hl=th&amp;entry=ttu&amp;g_ep=EgoyMDI0MTAwOS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>วัดหัวลำโพง</t>
+  </si>
+  <si>
+    <t>https://www.google.co.th/maps/place/%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A8%E0%B8%B2%E0%B8%A5%E0%B8%B2%E0%B8%A5%E0%B8%AD%E0%B8%A2+%E0%B8%9E%E0%B8%A3%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%A3%E0%B8%B2%E0%B8%A1%E0%B8%AB%E0%B8%A5%E0%B8%A7%E0%B8%87+%E0%B8%AA%E0%B8%B8%E0%B8%A3%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%A3%E0%B9%8C/@14.8822592,103.4935948,17z/data=!3m1!4b1!4m6!3m5!1s0x3119e3b4b8cc42a3:0xe0701dd750a7a7c6!8m2!3d14.8822592!4d103.4961697!16s%2Fg%2F1tfjn4nb?hl=th&amp;entry=ttu&amp;g_ep=EgoyMDI0MTAwOS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วัดสว่างอารมณ์ </t>
+  </si>
+  <si>
+    <t>กำแพงเพชร</t>
+  </si>
+  <si>
+    <t>https://www.google.co.th/maps/place/%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B8%A7%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%AD%E0%B8%B2%E0%B8%A3%E0%B8%A1%E0%B8%93%E0%B9%8C/@16.4861733,99.4905443,17z/data=!3m1!4b1!4m6!3m5!1s0x30de19c9a1373359:0x538199cf3a7f1ae!8m2!3d16.4861733!4d99.4931192!16s%2Fg%2F1td3ny9v?hl=th&amp;entry=ttu&amp;g_ep=EgoyMDI0MTAwOS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>วัดบางม่วง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>https://www.google.co.th/maps/place/%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B8%A1%E0%B9%88%E0%B8%A7%E0%B8%87/@13.8311148,100.3703967,17z/data=!3m1!4b1!4m6!3m5!1s0x30e2910acf45fbfb:0xa83b48dec13e7101!8m2!3d13.8311148!4d100.3729716!16s%2Fg%2F1tlfs6f3?hl=th&amp;entry=ttu&amp;g_ep=EgoyMDI0MTAwOS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>วัดศาลาลอย</t>
+  </si>
+  <si>
+    <t>สุรินทร์</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -318,7 +374,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="ปกติ" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
@@ -350,7 +406,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="Picture" id="2" name="Picture 1"/>
+        <xdr:cNvPr descr="Picture" id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -377,9 +439,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
@@ -417,9 +479,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,7 +516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,7 +551,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -662,30 +724,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.90625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.08984375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.26953125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.26953125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.7265625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.453125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.75" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.75" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -693,14 +755,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -714,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -728,7 +792,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -740,6 +804,96 @@
       </c>
       <c r="D3">
         <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60250EC-FC56-44D5-A1E1-C25CBC6C6AF4}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -748,24 +902,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.75" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.90625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -785,7 +939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -811,19 +965,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.90625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -837,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -851,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -865,7 +1019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -879,7 +1033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -893,7 +1047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -907,7 +1061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -927,19 +1081,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -953,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -967,7 +1121,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -981,7 +1135,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -995,7 +1149,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1015,14 +1169,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1036,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1046,11 +1200,11 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="n">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1060,11 +1214,11 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="n">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1074,8 +1228,8 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="n">
-        <v>50.0</v>
+      <c r="D4">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1084,17 +1238,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1108,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1118,11 +1272,11 @@
       <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="n">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="D2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1132,11 +1286,11 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1146,8 +1300,8 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="n">
-        <v>40.0</v>
+      <c r="D4">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1156,21 +1310,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="35.6328125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="11.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1184,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1198,7 +1352,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1212,7 +1366,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1226,7 +1380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1240,7 +1394,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1258,21 +1412,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="49.08984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.7265625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1286,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1314,7 +1468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1328,7 +1482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1342,7 +1496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1356,7 +1510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1376,12 +1530,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{7495286A-C4A4-4386-AD28-899828CDAD66}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="8" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="8" windowHeight="12460" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Coffin" r:id="rId1" sheetId="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>username</t>
   </si>
@@ -73,48 +72,6 @@
     <t>แพ็คเกจ</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>- โลงศพลายเทพพนม ราคา 8,000 บาท
-- หีบศพลายเทพพนม ขนาด 20 นิ้ว
-- บุนวมภายในหีบศพ
-- ธูป-เทียน สำหรับทำพิธีสวด 3 คืน
-- ดอกไม้จันทน์ 100 ดอก ช่อประธาน 3 ช่อ
-- ชุดรดน้ำศพ มาลัยกรอบรูป 1 
-- ผ้าแพรคลุมหน้า
-- ดอกไม้ประดับหน้าศพ (ดอกไม้ปรับเปลี่ยนตามฤดูกาล)
-- ดอกไม้ถวายพระ 8 กำ
-- อุปกรณ์เชิญวิญญาณ</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>สินค้าที่3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>สิน้ค้าที่4</t>
-  </si>
-  <si>
-    <t>สิ้นค้าที่รัก</t>
-  </si>
-  <si>
-    <t>เทสๆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">แบบที่ 5 </t>
-  </si>
-  <si>
-    <t>แบบที่ 6</t>
-  </si>
-  <si>
     <t>ประกอบด้วย</t>
   </si>
   <si>
@@ -127,16 +84,28 @@
     <t>ยร้ไนรกเนไ</t>
   </si>
   <si>
-    <t>34545</t>
-  </si>
-  <si>
-    <t>สินค้าที่3กห่กร้หรก้หรน</t>
+    <t>เพิ่ม8</t>
+  </si>
+  <si>
+    <t>เพิ่ม9</t>
+  </si>
+  <si>
+    <t>เพิ่ม10</t>
+  </si>
+  <si>
+    <t>เพิ่ม11</t>
+  </si>
+  <si>
+    <t>เพิ่ม12</t>
+  </si>
+  <si>
+    <t>dddddxxxxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -187,9 +156,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
@@ -227,9 +196,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +268,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,30 +441,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.1796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.08984375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.1796875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -503,24 +472,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.81640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -540,7 +509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -563,16 +532,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="9.81640625" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -580,19 +549,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,26 +608,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -666,16 +635,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="11.1796875" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -683,16 +652,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.453125" collapsed="true"/>
   </cols>
   <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -700,21 +669,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="59.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="8.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="59.90625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.90625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -728,93 +697,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>13000.0</v>
+        <v>120.0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>19000.0</v>
+        <v>120.0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>20.0</v>
+        <v>1234.0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C5"/>
       <c r="D5" t="n">
-        <v>2424.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>487.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="n">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="n">
-        <v>60000.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9" t="n">
-        <v>120.0</v>
+        <v>1234.0</v>
       </c>
     </row>
   </sheetData>

--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{978B6CF9-01FD-4221-9BC9-F208306D27F4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8"/>
+    <workbookView activeTab="10" firstSheet="3" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
-    <sheet name="Sandalwood" sheetId="10" r:id="rId10"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="Sandalwood" r:id="rId10" sheetId="10"/>
+    <sheet name="Temple" r:id="rId11" sheetId="11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
   <si>
     <t>ราคา</t>
   </si>
@@ -317,17 +319,75 @@
   </si>
   <si>
     <t>ดหกหฟดกหดหกดกหดกหดกหดกหดหก</t>
+  </si>
+  <si>
+    <t>รายชื่อวัด</t>
+  </si>
+  <si>
+    <t>จังหวัด</t>
+  </si>
+  <si>
+    <t>ที่อยู่</t>
+  </si>
+  <si>
+    <t>วัดพระศรีมหาธาตุวรมหาวิหาร</t>
+  </si>
+  <si>
+    <t>กรุงเทพ</t>
+  </si>
+  <si>
+    <t>https://www.google.co.th/maps/place/%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%9E%E0%B8%A3%E0%B8%B0%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%AB%E0%B8%B2%E0%B8%98%E0%B8%B2%E0%B8%95%E0%B8%B8%E0%B8%A7%E0%B8%A3%E0%B8%A1%E0%B8%AB%E0%B8%B2%E0%B8%A7%E0%B8%B4%E0%B8%AB%E0%B8%B2%E0%B8%A3/@13.8741049,100.5903086,16.5z/data=!4m6!3m5!1s0x30e29c5a3a91d177:0x140b15ef77bd4508!8m2!3d13.8742572!4d100.5934384!16s%2Fg%2F120y86cn?hl=th&amp;entry=ttu&amp;g_ep=EgoyMDI0MTAwOS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>วัดโสมนัส</t>
+  </si>
+  <si>
+    <t>https://www.google.co.th/maps/place/%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B9%82%E0%B8%AA%E0%B8%A1%E0%B8%99%E0%B8%B1%E0%B8%AA%E0%B8%A3%E0%B8%B2%E0%B8%8A%E0%B8%A7%E0%B8%A3%E0%B8%A7%E0%B8%B4%E0%B8%AB%E0%B8%B2%E0%B8%A3/@13.7606427,100.5079434,17z/data=!3m1!4b1!4m6!3m5!1s0x30e29940e5356021:0x348a0eee0711adbe!8m2!3d13.7606427!4d100.5105183!16s%2Fm%2F0472hd1?hl=th&amp;entry=ttu&amp;g_ep=EgoyMDI0MTAwOS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วัดหัวลำโพง </t>
+  </si>
+  <si>
+    <t>https://www.google.co.th/maps/place/%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%A5%E0%B8%B3%E0%B9%82%E0%B8%9E%E0%B8%87+%E0%B8%9E%E0%B8%A3%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%A3%E0%B8%B2%E0%B8%A1%E0%B8%AB%E0%B8%A5%E0%B8%A7%E0%B8%87/@13.7319972,100.5242056,17z/data=!3m1!4b1!4m6!3m5!1s0x30e29f2ad4b3e441:0xb25108f35b4f6ce0!8m2!3d13.7319972!4d100.5290765!16s%2Fm%2F0cz8hw8?hl=th&amp;entry=ttu&amp;g_ep=EgoyMDI0MTAwOS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>วัดสว่างอารมณ์</t>
+  </si>
+  <si>
+    <t>กำแพงเพชร</t>
+  </si>
+  <si>
+    <t>https://www.google.co.th/maps/place/%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B8%A7%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%AD%E0%B8%B2%E0%B8%A3%E0%B8%A1%E0%B8%93%E0%B9%8C/@16.4861733,99.4905443,17z/data=!3m1!4b1!4m6!3m5!1s0x30de19c9a1373359:0x538199cf3a7f1ae!8m2!3d16.4861733!4d99.4931192!16s%2Fg%2F1td3ny9v?hl=th&amp;entry=ttu&amp;g_ep=EgoyMDI0MTAwOS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>วัดบางม่วง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>https://www.google.co.th/maps/place/%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B8%A1%E0%B9%88%E0%B8%A7%E0%B8%87/@13.8311148,100.3703967,17z/data=!3m1!4b1!4m6!3m5!1s0x30e2910acf45fbfb:0xa83b48dec13e7101!8m2!3d13.8311148!4d100.3729716!16s%2Fg%2F1tlfs6f3?hl=th&amp;entry=ttu&amp;g_ep=EgoyMDI0MTAwOS4wIKXMDSoASAFQAw%3D%3D</t>
+  </si>
+  <si>
+    <t>วัดศาลาลอย</t>
+  </si>
+  <si>
+    <t>สุรินทร์</t>
+  </si>
+  <si>
+    <t>https://www.google.co.th/maps/place/%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%A8%E0%B8%B2%E0%B8%A5%E0%B8%B2%E0%B8%A5%E0%B8%AD%E0%B8%A2+%E0%B8%9E%E0%B8%A3%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%A3%E0%B8%B2%E0%B8%A1%E0%B8%AB%E0%B8%A5%E0%B8%A7%E0%B8%87+%E0%B8%AA%E0%B8%B8%E0%B8%A3%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%A3%E0%B9%8C/@14.8822592,103.4935948,17z/data=!3m1!4b1!4m6!3m5!1s0x3119e3b4b8cc42a3:0xe0701dd750a7a7c6!8m2!3d14.8822592!4d103.4961697!16s%2Fg%2F1tfjn4nb?hl=th&amp;entry=ttu&amp;g_ep=EgoyMDI0MTAwOS4wIKXMDSoASAFQAw%3D%3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -350,16 +410,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="ปกติ" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -372,7 +432,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -388,7 +448,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr descr="Picture" id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -415,14 +481,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -455,9 +521,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,7 +558,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,7 +593,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -580,7 +646,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -589,13 +655,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -605,7 +671,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -614,7 +680,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -623,7 +689,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -633,12 +699,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -669,7 +735,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -688,7 +754,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -700,33 +766,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.90625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.26953125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.08984375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.75" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -746,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -766,7 +832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -786,20 +852,37 @@
         <v>27</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -813,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -827,7 +910,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -842,29 +925,119 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB163E8-3118-4C9A-985E-A8EA8D170030}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7265625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -884,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -905,24 +1078,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -936,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -950,7 +1123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -964,7 +1137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -978,7 +1151,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -992,7 +1165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1006,7 +1179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1021,24 +1194,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1052,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1066,7 +1239,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1080,7 +1253,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1094,7 +1267,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1109,19 +1282,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1135,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1149,7 +1322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1163,7 +1336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1178,22 +1351,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1207,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1221,7 +1394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1235,7 +1408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1250,26 +1423,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.6328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1283,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1297,7 +1470,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1311,7 +1484,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1325,7 +1498,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1339,7 +1512,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -1351,27 +1524,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.08984375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1385,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1399,7 +1572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1413,7 +1586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1427,7 +1600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1441,7 +1614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1470,21 +1643,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -1498,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1512,7 +1685,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -1527,6 +1700,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F8D480-E369-4DC3-B8BE-E775D17FA005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="8" windowHeight="12460" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
-    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
-    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
-    <sheet name="frame" r:id="rId4" sheetId="5"/>
-    <sheet name="Candles" r:id="rId5" sheetId="9"/>
-    <sheet name="Incense" r:id="rId6" sheetId="6"/>
-    <sheet name="Offering" r:id="rId7" sheetId="7"/>
-    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
-    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
+    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
+    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
+    <sheet name="frame" sheetId="5" r:id="rId4"/>
+    <sheet name="Candles" sheetId="9" r:id="rId5"/>
+    <sheet name="Incense" sheetId="6" r:id="rId6"/>
+    <sheet name="Offering" sheetId="7" r:id="rId7"/>
+    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
+    <sheet name="Package" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -72,41 +73,28 @@
     <t>แพ็คเกจ</t>
   </si>
   <si>
-    <t>ประกอบด้วย</t>
-  </si>
-  <si>
-    <t>เปล่ี่ยน6</t>
-  </si>
-  <si>
-    <t>เพิ่ม7</t>
-  </si>
-  <si>
-    <t>ยร้ไนรกเนไ</t>
-  </si>
-  <si>
-    <t>เพิ่ม8</t>
-  </si>
-  <si>
-    <t>เพิ่ม9</t>
-  </si>
-  <si>
-    <t>เพิ่ม10</t>
-  </si>
-  <si>
-    <t>เพิ่ม11</t>
-  </si>
-  <si>
-    <t>เพิ่ม12</t>
-  </si>
-  <si>
-    <t>dddddxxxxx</t>
+    <t>ทดสอบ</t>
+  </si>
+  <si>
+    <t>สินค้า2</t>
+  </si>
+  <si>
+    <t>ากหรกนห</t>
+  </si>
+  <si>
+    <t>เปลียน</t>
+  </si>
+  <si>
+    <t>สินค้า3</t>
+  </si>
+  <si>
+    <t>กเอรนกเอนรหก</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,16 +122,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -155,15 +143,152 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>145774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>172279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2020957</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4863548" y="172279"/>
+          <a:ext cx="1875183" cy="152399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3730487</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>145776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198782</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>159027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4340087" y="331306"/>
+          <a:ext cx="2623930" cy="198782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3770243</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>178903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379843" y="549964"/>
+          <a:ext cx="2418522" cy="185532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -196,9 +321,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -321,7 +446,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -330,13 +455,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -346,7 +471,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -355,7 +480,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -364,7 +489,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -374,12 +499,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -410,7 +535,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -429,7 +554,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -441,55 +566,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6328125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.1796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.1796875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.08984375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.453125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.1796875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.81640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.81640625" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -509,7 +634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -527,41 +652,41 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,87 +728,87 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="A1:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.90625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="59.90625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.90625" collapsed="true"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -697,53 +822,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="n">
-        <v>120.0</v>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1234.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5" t="n">
-        <v>1234.0</v>
+      <c r="D4">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/StoreStock.xlsx
+++ b/StoreStock.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAD5FA7-5B44-42DD-B1BA-87062949D9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BA256F13-59BD-4917-A968-0E19F3A85EB6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Coffin" sheetId="1" r:id="rId1"/>
-    <sheet name="Wreath" sheetId="2" r:id="rId2"/>
-    <sheet name="Souvenirs" sheetId="4" r:id="rId3"/>
-    <sheet name="frame" sheetId="5" r:id="rId4"/>
-    <sheet name="Candles" sheetId="9" r:id="rId5"/>
-    <sheet name="Incense" sheetId="6" r:id="rId6"/>
-    <sheet name="Offering" sheetId="7" r:id="rId7"/>
-    <sheet name="SnackBox" sheetId="3" r:id="rId8"/>
-    <sheet name="Package" sheetId="8" r:id="rId9"/>
-    <sheet name="Sandalwood" sheetId="10" r:id="rId10"/>
-    <sheet name="Temple" sheetId="11" r:id="rId11"/>
+    <sheet name="Coffin" r:id="rId1" sheetId="1"/>
+    <sheet name="Wreath" r:id="rId2" sheetId="2"/>
+    <sheet name="Souvenirs" r:id="rId3" sheetId="4"/>
+    <sheet name="frame" r:id="rId4" sheetId="5"/>
+    <sheet name="Candles" r:id="rId5" sheetId="9"/>
+    <sheet name="Incense" r:id="rId6" sheetId="6"/>
+    <sheet name="Offering" r:id="rId7" sheetId="7"/>
+    <sheet name="SnackBox" r:id="rId8" sheetId="3"/>
+    <sheet name="Package" r:id="rId9" sheetId="8"/>
+    <sheet name="Sandalwood" r:id="rId10" sheetId="10"/>
+    <sheet name="Temple" r:id="rId11" sheetId="11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
   <si>
     <t>ราคา</t>
   </si>
@@ -186,12 +186,250 @@
   </si>
   <si>
     <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\candle3.png</t>
+  </si>
+  <si>
+    <t>พวงหรีดทรงกลม</t>
+  </si>
+  <si>
+    <t>พวงหรีดทรงกลม ทางร้านทำด้วยใจเพื่ออำลาคนที่ท่านรักเป็นครั้งสุดท้าย</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\wreath1.png</t>
+  </si>
+  <si>
+    <t>ผ้า,ดอกไม้ปลอม</t>
+  </si>
+  <si>
+    <t>1500/1200</t>
+  </si>
+  <si>
+    <t>ชุดสังฆทานยาและเครื่องใช้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รวมยาสามัญประจำบ้าน เช่น ยาแก้ปวด, พลาสเตอร์, พร้อมของใช้จำเป็น เช่น สบู่, ผ้าขนหนู, น้ำดื่ม 
+เหมาะสำหรับ: งานที่ต้องการเน้นเวชภัณฑ์เพื่อช่วยดูแลพระสงฆ์ </t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\offering1.png</t>
+  </si>
+  <si>
+    <t>ชุดสวดอภิธรรม SET 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ประกอบด้วยปลอกหมอน, ผ้าขนหนู, หน้ากากอนามัย, สบู่, ฟองน้ำ, ทิชชู่, ชุดยาสามัญ, น้ำผลไม้, และธูปเทียน 
+เหมาะสำหรับ: งานสวด 1 คืนขึ้นไป </t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\offering2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชุดสวดอภิธรรม SET 8 </t>
+  </si>
+  <si>
+    <t>มีผ้าขนหนู, หน้ากากอนามัย, เจลแอลกอฮอล์, ฟองน้ำ, ทิชชู่, เครื่องดื่มขิงผง, น้ำดื่ม และตะกร้าสานพร้อมโบว์ 
+เหมาะสำหรับ: งานสวด 3 คืนหรือมากกว่า</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\offering3.png</t>
+  </si>
+  <si>
+    <t>แบบช่อ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ช่อเชิญดอกไม้จันทน์ 9 ดอก สำหรับประธานในพิธี 
+ทำจากกระดาษสีขาวนวล
+ราคา 120 บาท/1 แพ็ค(1 แพ็คมี 100 ดอก)
+ </t>
+  </si>
+  <si>
+    <t>แบบดอก</t>
+  </si>
+  <si>
+    <t>ดอกไม้จันทน์แบบดอกสำหรับแขกที่เข้าร่วมงาน
+ ทำจากกระดาษ สีขาวนวล</t>
+  </si>
+  <si>
+    <t>กรอบรูปพลาสติก</t>
+  </si>
+  <si>
+    <t>ผลิตจากพลาสติก มีน้ำหนักเบา ทำความสะอาดง่าย ขนาด 12x18 นิ้ว</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\frame1.png</t>
+  </si>
+  <si>
+    <t>กรอบรูปอะลูมิเนียม</t>
+  </si>
+  <si>
+    <t>ผลิตจากอะลูมิเนียม มีความคงทน ดีไซน์เรียบๆ ขนาด 12x18 นิ้ว</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\frame2.png</t>
+  </si>
+  <si>
+    <t>กรอบรูปหลุยส์</t>
+  </si>
+  <si>
+    <t>ผลิตมาจากไม้ เคลือบด้วยสีทอง มีความแข็งแรง ทนทาน และหรูหรา ขนาด 12x18 นิ้ว</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\frame3.png</t>
+  </si>
+  <si>
+    <t>กรอบรูปไม้</t>
+  </si>
+  <si>
+    <t>ผลิตจากไม้Polystyrene(ไม้เส้นพลาสติก) มีลักษณะคล้ายกับไม้แท้ สามารถกันน้ำ กันปลวกได้ ขนาด 12x18 นิ้ว</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\frame4.png</t>
+  </si>
+  <si>
+    <t>แพ็คเกจที่ 1</t>
+  </si>
+  <si>
+    <t>รายละเอียดแพ็คเกจ
+- หีบศพลายเทพพนม ขนาด 20 นิ้ว ราคา 2,000 บาท
+- บุนวมภายในหีบศพ
+- ธูป-เทียน สำหรับทำพิธีสวด 3 คืน
+- ดอกไม้จันทน์ 100 ดอก ช่อประธาน 3 ช่อ
+- ชุดรดน้ำศพ มาลัยกรอบรูป 1
+- ผ้าแพรคลุมหน้า
+- ดอกไม้ประดับหน้าศพ (ดอกไม้ปรับเปลี่ยนตามฤดูกาล)
+- ดอกไม้ถวายพระ 8 กำ
+- อุปกรณ์เชิญวิญญาณ</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\package1.png</t>
+  </si>
+  <si>
+    <t>แพ็คเกจที่ 2</t>
+  </si>
+  <si>
+    <t>- หีบมุกฐาน 3 ชั้น ขนาด 22 นิ้ว ราคา 5000
+- ธูป-เทียน สำหรับทำพิธีสวด 3 คืน
+- บุนวมภายในหีบศพ
+- ดอกไม้จันทน์ 100 ดอก ช่อประธาน 3 ช่อ
+- ชุดรดน้ำศพ มาลัยกรอบรูป 1
+- ผ้าแพรคลุมหน้า
+- ดอกไม้ประดับหน้าศพ (ดอกไม้ปรับเปลี่ยนตามฤดูกาล)
+- ดอกไม้ถวายพระ 8 กำ
+- อุปกรณ์เชิญวิญญาณ</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\package2.png</t>
+  </si>
+  <si>
+    <t>แพ็คเกจที่ 3</t>
+  </si>
+  <si>
+    <t>- หีบผ้าตาดจีบ ฐาน 3 ชั้น ขนาด 22 นิ้ว ราคา 10000
+- ผ้าแพรคลุมศพ
+- บุนวมภายในหีบศพ
+- ดอกไม้ประดับหน้าศพ (ดอกไม้ปรับเปลี่ยนตามฤดูกาล)
+- ดอกไม้ถวายพระ 8 กำ
+- ชุดรถน้ำศพ พร้อมมาลัยกรอบรูป
+- ธูป-เทียน สำหรับพิธีสวด 3 คืน
+- อุปกรณ์เชิญวิญญาณ
+- ดอกไม้จันทน์ 200 ดอก พร้อมช่อประธาน 3 ช่อ</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\package3.png</t>
+  </si>
+  <si>
+    <t>ม่วง,ชมพู,ขาว,ส้ม,หลากสี</t>
+  </si>
+  <si>
+    <t>พัดไม้ฉลุ</t>
+  </si>
+  <si>
+    <t>วัสดุทำจากไม้ 
+ซื้อขั้นต่ำ 100 อัน ราคา 1,950 บาท</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\souvenir1.png</t>
+  </si>
+  <si>
+    <t>ธูปไหว้พระปกติ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ขนาด 10 นิ้ว หรือประมาณ 25 เซนติเมตร จำนวน 90 ดอก </t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_FinalAgain\src\ToHeaven\incense2.png</t>
+  </si>
+  <si>
+    <t>ธูปไหว้พระไร้ควัน</t>
+  </si>
+  <si>
+    <t>ขนาด 10 นิ้ว หรือประมาณ 25 เซนติเมตร จำนวน 60 ดอก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วัดโสมนัส </t>
+  </si>
+  <si>
+    <t>เซต1</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย พายทูน่า 1 ชิ้น และ วนิลาบัตเตอร์เค้ก 1 ชิ้น</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_VerCopyyyyyyyyy\src\ToHeaven\snackBox1.png</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>เซต2</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย อัลมอนด์ครัวซองต์ 1 ชิ้น และ ชาดำ 1 ขวด</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_VerCopyyyyyyyyy\src\ToHeaven\snackBox2.png</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>เซต3</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย ขนมปังใส้เผือก+แปะก๊วย 1 ชิ้น ขนมปังแฮมชีส 1 ชิ้น และ น้ำส้ม 1 กล่อง</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_VerCopyyyyyyyyy\src\ToHeaven\snackBox3.png</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>เซต4</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย พายไก่ 1 ชิ้น ทูโทนบัตเตอร์เค้ก 1 ชิ้น และ น้ำส้ม 1 กล่อง</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_VerCopyyyyyyyyy\src\ToHeaven\snackBox4.png</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>เซต5</t>
+  </si>
+  <si>
+    <t>ประกอบด้วย พายแอปเปิ้ล 1 ชิ้น วนิลาบัตเตอร์เค้ก 1 ชิ้น และ น้ำส้ม 1 กล่อง</t>
+  </si>
+  <si>
+    <t>C:\Users\Khao\Desktop\SoftwareProject_VerCopyyyyyyyyy\src\ToHeaven\snackBox5.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,16 +457,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -245,10 +483,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -406,7 +644,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -415,13 +653,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -431,7 +669,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -440,7 +678,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -449,7 +687,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -459,12 +697,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -495,7 +733,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -514,7 +752,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -526,8 +764,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -535,21 +773,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -613,13 +851,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="A2:E7"/>
@@ -641,14 +879,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB163E8-3118-4C9A-985E-A8EA8D170030}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB163E8-3118-4C9A-985E-A8EA8D170030}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
@@ -733,27 +999,38 @@
         <v>35</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -776,14 +1053,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="A2:D7"/>
@@ -791,7 +1088,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -808,14 +1105,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="A2:E7"/>
@@ -823,7 +1134,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -840,23 +1151,79 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5">
+        <v>499</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="69.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="69.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -916,13 +1283,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="A2:E7"/>
@@ -930,7 +1297,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -947,14 +1314,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -962,9 +1357,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -981,14 +1376,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>3120</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="A2:E9"/>
@@ -996,9 +1433,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,14 +1452,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="A2:F5"/>
@@ -1044,7 +1551,49 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <v>31000</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>